--- a/Cost Estimate.xlsx
+++ b/Cost Estimate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisa\Documents\PlotSomething\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6D7C70-F39A-4C6A-8894-D0AACEB418A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6466FA7-D5F8-405D-94B6-BC4C80979DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{87914853-9D23-4A52-83CB-A1AB6492AA98}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Vendor</t>
   </si>
@@ -52,18 +52,12 @@
     <t>N</t>
   </si>
   <si>
-    <t>#10-24 Zinc Plated Machine Screw Nut</t>
-  </si>
-  <si>
     <t>Brand</t>
   </si>
   <si>
     <t>Everbilt</t>
   </si>
   <si>
-    <t>3/8 in. x 36 in. Zinc Plated Fine Threaded Rod</t>
-  </si>
-  <si>
     <t>What is it for?</t>
   </si>
   <si>
@@ -76,15 +70,9 @@
     <t>Motor Mount Screw</t>
   </si>
   <si>
-    <t>#10 x 1-1/2 in Machine Screw</t>
-  </si>
-  <si>
     <t>Motor Mount Nut</t>
   </si>
   <si>
-    <t>#10 x 1-1/2 in Nut</t>
-  </si>
-  <si>
     <t>McMasterCarr</t>
   </si>
   <si>
@@ -110,6 +98,57 @@
   </si>
   <si>
     <t>Total Price</t>
+  </si>
+  <si>
+    <t>#10-24 x 1-1/2 in Machine Screw</t>
+  </si>
+  <si>
+    <t>#10-24 x 1-1/2 in Nut</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/10-24-x-1-1-2-in-Combo-Round-Head-Zinc-Plated-Machine-Screw-5-Pack-803221/204274627</t>
+  </si>
+  <si>
+    <t>3/8 in.-24 x 36 in. Zinc Plated Fine Threaded Rod</t>
+  </si>
+  <si>
+    <t>#3/8-24 Zinc Plated Machine Screw Nut</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Everbilt-3-8-in-24-tpi-Zinc-Plated-Grade-5-Hex-Nut-851858/204836072</t>
+  </si>
+  <si>
+    <t>3/8 in. Bearings for Screw and Shaft</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/6575N215/</t>
+  </si>
+  <si>
+    <t>T-Track Slider</t>
+  </si>
+  <si>
+    <t>Shaft/Lead Screw Bearings</t>
+  </si>
+  <si>
+    <t>Drive Shaft</t>
+  </si>
+  <si>
+    <t>Aluminum T-slider Track (LENGTH: ?)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Donepart-R6-2RS-Bearings-Pre-Lubricated-Double/dp/B07X93RV9L/ref=sr_1_3?crid=1B99HGFE7TFPK&amp;keywords=3%2F8%2Binch%2Bbearing&amp;qid=1645729161&amp;s=industrial&amp;sprefix=3%2F8%2Binch%2Bbearing%2Cindustrial%2C139&amp;sr=1-3&amp;th=1</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Base Shaft</t>
+  </si>
+  <si>
+    <t>3/8 in. Base Shaft</t>
+  </si>
+  <si>
+    <t>3/8 in. Drive Shaft</t>
   </si>
 </sst>
 </file>
@@ -119,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +189,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -173,26 +246,46 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -509,88 +602,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181D703F-20ED-4372-AC32-B179828F1B52}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.90625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="91.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="91.453125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="C2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7">
         <v>1</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7">
-        <v>1.28</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="7">
+        <v>6</v>
+      </c>
+      <c r="G2" s="17">
+        <v>0.33</v>
+      </c>
+      <c r="H2" s="18" t="s">
         <v>4</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -601,102 +697,177 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="4">
         <v>4.28</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="I3" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="E4" s="13">
+        <v>5</v>
+      </c>
+      <c r="F4" s="13">
+        <v>2</v>
+      </c>
+      <c r="G4" s="14">
+        <f>1.28*2</f>
+        <v>2.56</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="I4" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="E6">
+      <c r="D8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G8" s="4">
         <f>12.62*2</f>
         <v>25.24</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>12.99</v>
+      </c>
       <c r="H9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
       <c r="H10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I6" r:id="rId1" xr:uid="{4043525E-543B-42D3-BF91-FA2ED241984A}"/>
+    <hyperlink ref="I8" r:id="rId1" xr:uid="{4043525E-543B-42D3-BF91-FA2ED241984A}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{1AA7FB92-1DDB-4164-99C7-BE3022512B21}"/>
+    <hyperlink ref="I2" r:id="rId3" xr:uid="{90EBDB27-43F8-4602-92A9-2BEDA9E9F939}"/>
+    <hyperlink ref="I10" r:id="rId4" xr:uid="{784C816E-EA14-470F-AAB6-455F24BCEF93}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Cost Estimate.xlsx
+++ b/Cost Estimate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisa\Documents\PlotSomething\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6466FA7-D5F8-405D-94B6-BC4C80979DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745ED8C9-5779-4CEC-AEE2-5741D27EE915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{87914853-9D23-4A52-83CB-A1AB6492AA98}"/>
   </bookViews>
@@ -605,7 +605,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -862,10 +862,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I8" r:id="rId1" xr:uid="{4043525E-543B-42D3-BF91-FA2ED241984A}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{1AA7FB92-1DDB-4164-99C7-BE3022512B21}"/>
-    <hyperlink ref="I2" r:id="rId3" xr:uid="{90EBDB27-43F8-4602-92A9-2BEDA9E9F939}"/>
-    <hyperlink ref="I10" r:id="rId4" xr:uid="{784C816E-EA14-470F-AAB6-455F24BCEF93}"/>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{1AA7FB92-1DDB-4164-99C7-BE3022512B21}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{90EBDB27-43F8-4602-92A9-2BEDA9E9F939}"/>
+    <hyperlink ref="I10" r:id="rId3" xr:uid="{784C816E-EA14-470F-AAB6-455F24BCEF93}"/>
+    <hyperlink ref="I8" r:id="rId4" xr:uid="{4043525E-543B-42D3-BF91-FA2ED241984A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>

--- a/Cost Estimate.xlsx
+++ b/Cost Estimate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisa\Documents\PlotSomething\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745ED8C9-5779-4CEC-AEE2-5741D27EE915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD23D82-F553-435B-8A51-986BF2D7DAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{87914853-9D23-4A52-83CB-A1AB6492AA98}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>Vendor</t>
   </si>
@@ -133,9 +133,6 @@
     <t>Drive Shaft</t>
   </si>
   <si>
-    <t>Aluminum T-slider Track (LENGTH: ?)</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/Donepart-R6-2RS-Bearings-Pre-Lubricated-Double/dp/B07X93RV9L/ref=sr_1_3?crid=1B99HGFE7TFPK&amp;keywords=3%2F8%2Binch%2Bbearing&amp;qid=1645729161&amp;s=industrial&amp;sprefix=3%2F8%2Binch%2Bbearing%2Cindustrial%2C139&amp;sr=1-3&amp;th=1</t>
   </si>
   <si>
@@ -148,7 +145,49 @@
     <t>3/8 in. Base Shaft</t>
   </si>
   <si>
-    <t>3/8 in. Drive Shaft</t>
+    <t>Flange Bearing Mount</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/3-8-in-x-36-in-Plain-Steel-Round-Rod-802447/204273959</t>
+  </si>
+  <si>
+    <t>3/8 in. x 36 in Drive Shaft</t>
+  </si>
+  <si>
+    <t>NOTES:</t>
+  </si>
+  <si>
+    <t>Green text means parts found in ME 405 Lab</t>
+  </si>
+  <si>
+    <t>Alternatives if parts don't work out:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Aluminum T-slider Track</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (LENGTH: ?)</t>
+    </r>
+  </si>
+  <si>
+    <t>Base Shaft Mount</t>
+  </si>
+  <si>
+    <t>Solenoid</t>
   </si>
 </sst>
 </file>
@@ -158,7 +197,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +262,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -246,7 +294,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -286,6 +334,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -602,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181D703F-20ED-4372-AC32-B179828F1B52}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -617,7 +666,7 @@
     <col min="6" max="6" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.90625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="91.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="74.453125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -714,25 +763,9 @@
       <c r="C4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="13">
-        <v>5</v>
-      </c>
-      <c r="F4" s="13">
-        <v>2</v>
-      </c>
-      <c r="G4" s="14">
-        <f>1.28*2</f>
-        <v>2.56</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>23</v>
-      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
@@ -741,13 +774,8 @@
       <c r="C5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>3</v>
-      </c>
       <c r="G5" s="14"/>
-      <c r="H5" s="15" t="s">
-        <v>4</v>
-      </c>
+      <c r="H5" s="15"/>
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -755,18 +783,33 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>5.98</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>36</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
@@ -807,7 +850,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -822,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -830,7 +873,7 @@
         <v>29</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -849,16 +892,100 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="H12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I12" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="13">
+        <v>5</v>
+      </c>
+      <c r="F19" s="13">
+        <v>2</v>
+      </c>
+      <c r="G19" s="14">
+        <f>1.28*2</f>
+        <v>2.56</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -866,8 +993,9 @@
     <hyperlink ref="I2" r:id="rId2" xr:uid="{90EBDB27-43F8-4602-92A9-2BEDA9E9F939}"/>
     <hyperlink ref="I10" r:id="rId3" xr:uid="{784C816E-EA14-470F-AAB6-455F24BCEF93}"/>
     <hyperlink ref="I8" r:id="rId4" xr:uid="{4043525E-543B-42D3-BF91-FA2ED241984A}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{168F1F45-731F-40A2-ABE2-2442353E7648}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Cost Estimate.xlsx
+++ b/Cost Estimate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisa\Documents\PlotSomething\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD23D82-F553-435B-8A51-986BF2D7DAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6078D7-22ED-47B8-8D85-042A3383FEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{87914853-9D23-4A52-83CB-A1AB6492AA98}"/>
+    <workbookView xWindow="11860" yWindow="340" windowWidth="3350" windowHeight="7360" xr2:uid="{87914853-9D23-4A52-83CB-A1AB6492AA98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>Vendor</t>
   </si>
@@ -82,9 +82,6 @@
     <t>https://www.mcmaster.com/shaft-couplings/set-screw-shaft-couplings/</t>
   </si>
   <si>
-    <t>https://www.homedepot.com/p/Everbilt-3-8-in-x-36-in-Zinc-Plated-Fine-Threaded-Rod-800817/204325652</t>
-  </si>
-  <si>
     <t>Set Screw Shaft Coupling, Black-Oxide Steel, for 3/8" Diameter Round Shaft</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t>https://www.homedepot.com/p/10-24-x-1-1-2-in-Combo-Round-Head-Zinc-Plated-Machine-Screw-5-Pack-803221/204274627</t>
   </si>
   <si>
-    <t>3/8 in.-24 x 36 in. Zinc Plated Fine Threaded Rod</t>
-  </si>
-  <si>
     <t>#3/8-24 Zinc Plated Machine Screw Nut</t>
   </si>
   <si>
@@ -163,31 +157,28 @@
     <t>Alternatives if parts don't work out:</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Aluminum T-slider Track</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (LENGTH: ?)</t>
-    </r>
-  </si>
-  <si>
     <t>Base Shaft Mount</t>
   </si>
   <si>
     <t>Solenoid</t>
+  </si>
+  <si>
+    <t>Aluminum T-slider Track (length: 16 in)</t>
+  </si>
+  <si>
+    <t>Wheel</t>
+  </si>
+  <si>
+    <t>Driving Wheel</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B0722JK1L1/ref=ox_sc_act_title_1?smid=A1283MCABFXB0Q&amp;psc=1</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/catalog/128/3476</t>
+  </si>
+  <si>
+    <t>3/8 in.-24 x 12 in. Low Strength Steel Threaded Rod</t>
   </si>
 </sst>
 </file>
@@ -311,9 +302,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -335,6 +323,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -653,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181D703F-20ED-4372-AC32-B179828F1B52}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -666,7 +657,7 @@
     <col min="6" max="6" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.90625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="74.453125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="74.453125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -683,13 +674,13 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>1</v>
@@ -706,7 +697,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>3</v>
@@ -717,14 +708,15 @@
       <c r="F2" s="7">
         <v>6</v>
       </c>
-      <c r="G2" s="17">
-        <v>0.33</v>
-      </c>
-      <c r="H2" s="18" t="s">
+      <c r="G2" s="16">
+        <f>0.33*6</f>
+        <v>1.98</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>26</v>
+      <c r="I2" s="19" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -735,10 +727,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -747,43 +739,43 @@
         <v>1</v>
       </c>
       <c r="G3" s="4">
-        <v>4.28</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="I3" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>3</v>
@@ -801,26 +793,26 @@
         <v>4</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16"/>
+    </row>
+    <row r="7" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>12</v>
@@ -838,19 +830,19 @@
       <c r="H8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -864,15 +856,15 @@
       <c r="H9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>32</v>
+      <c r="I9" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D10" t="s">
@@ -884,118 +876,142 @@
       <c r="F10">
         <v>1</v>
       </c>
+      <c r="G10" s="4">
+        <v>3.84</v>
+      </c>
       <c r="H10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="11"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>11.95</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="11"/>
+      <c r="I12" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="19" t="s">
-        <v>39</v>
+      <c r="A16" s="18" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="13" t="s">
+      <c r="C19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>5</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <v>2</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="13">
         <f>1.28*2</f>
         <v>2.56</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I19" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
+      <c r="I19" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15" t="s">
+      <c r="G20" s="13"/>
+      <c r="H20" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="16"/>
-    </row>
-    <row r="21" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15" t="s">
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="16"/>
+      <c r="I21" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" xr:uid="{1AA7FB92-1DDB-4164-99C7-BE3022512B21}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{90EBDB27-43F8-4602-92A9-2BEDA9E9F939}"/>
-    <hyperlink ref="I10" r:id="rId3" xr:uid="{784C816E-EA14-470F-AAB6-455F24BCEF93}"/>
-    <hyperlink ref="I8" r:id="rId4" xr:uid="{4043525E-543B-42D3-BF91-FA2ED241984A}"/>
-    <hyperlink ref="I6" r:id="rId5" xr:uid="{168F1F45-731F-40A2-ABE2-2442353E7648}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{90EBDB27-43F8-4602-92A9-2BEDA9E9F939}"/>
+    <hyperlink ref="I10" r:id="rId2" xr:uid="{784C816E-EA14-470F-AAB6-455F24BCEF93}"/>
+    <hyperlink ref="I8" r:id="rId3" xr:uid="{4043525E-543B-42D3-BF91-FA2ED241984A}"/>
+    <hyperlink ref="I6" r:id="rId4" xr:uid="{168F1F45-731F-40A2-ABE2-2442353E7648}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Cost Estimate.xlsx
+++ b/Cost Estimate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisa\Documents\PlotSomething\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6078D7-22ED-47B8-8D85-042A3383FEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B48CD45-32CF-4330-A4E8-86077F8DA022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11860" yWindow="340" windowWidth="3350" windowHeight="7360" xr2:uid="{87914853-9D23-4A52-83CB-A1AB6492AA98}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{87914853-9D23-4A52-83CB-A1AB6492AA98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,14 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
     <t>Vendor</t>
   </si>
   <si>
-    <t>Ordered Yet?</t>
-  </si>
-  <si>
     <t>Part Name</t>
   </si>
   <si>
@@ -179,6 +176,39 @@
   </si>
   <si>
     <t>3/8 in.-24 x 12 in. Low Strength Steel Threaded Rod</t>
+  </si>
+  <si>
+    <t>Limit Switch</t>
+  </si>
+  <si>
+    <t>Items Bought</t>
+  </si>
+  <si>
+    <t>Purchaser</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>Bearings, Solenoid</t>
+  </si>
+  <si>
+    <t>Shaft Couplings, Threaded Rod (Lead Screw)</t>
+  </si>
+  <si>
+    <t>Luisa</t>
+  </si>
+  <si>
+    <t>Corey</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Obtained Yet?</t>
   </si>
 </sst>
 </file>
@@ -285,7 +315,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -324,6 +354,11 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -642,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181D703F-20ED-4372-AC32-B179828F1B52}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
@@ -651,56 +686,57 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="74.453125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="7">
         <v>1</v>
@@ -713,24 +749,24 @@
         <v>1.98</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -742,18 +778,18 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="14"/>
@@ -761,10 +797,10 @@
     </row>
     <row r="5" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="14"/>
@@ -772,13 +808,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -790,18 +826,18 @@
         <v>5.98</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="14"/>
@@ -809,13 +845,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -828,21 +864,21 @@
         <v>25.24</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -854,21 +890,21 @@
         <v>12.99</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -880,33 +916,33 @@
         <v>3.84</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -918,45 +954,53 @@
         <v>11.95</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="12">
         <v>5</v>
@@ -969,40 +1013,101 @@
         <v>2.56</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20" s="15"/>
     </row>
     <row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21" s="15"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="I24" s="22"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="4">
+        <v>27.13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="4">
+        <v>37.79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D30" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Cost Estimate.xlsx
+++ b/Cost Estimate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisa\Documents\PlotSomething\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B48CD45-32CF-4330-A4E8-86077F8DA022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA3CC36-AFF3-4632-AD3C-EA7758C6B3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{87914853-9D23-4A52-83CB-A1AB6492AA98}"/>
   </bookViews>
@@ -679,9 +679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181D703F-20ED-4372-AC32-B179828F1B52}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Cost Estimate.xlsx
+++ b/Cost Estimate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisa\Documents\PlotSomething\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA3CC36-AFF3-4632-AD3C-EA7758C6B3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADEA863-1661-4E08-BD5C-ED6F4F01F2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{87914853-9D23-4A52-83CB-A1AB6492AA98}"/>
   </bookViews>
@@ -106,9 +106,6 @@
     <t>#3/8-24 Zinc Plated Machine Screw Nut</t>
   </si>
   <si>
-    <t>https://www.homedepot.com/p/Everbilt-3-8-in-24-tpi-Zinc-Plated-Grade-5-Hex-Nut-851858/204836072</t>
-  </si>
-  <si>
     <t>3/8 in. Bearings for Screw and Shaft</t>
   </si>
   <si>
@@ -209,6 +206,9 @@
   </si>
   <si>
     <t>Obtained Yet?</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Everbilt-10-24-Stainless-Steel-Machine-Screw-Nut-4-Pack-800031/204274134</t>
   </si>
 </sst>
 </file>
@@ -679,7 +679,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181D703F-20ED-4372-AC32-B179828F1B52}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -717,7 +719,7 @@
         <v>18</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>12</v>
@@ -737,20 +739,20 @@
         <v>2</v>
       </c>
       <c r="E2" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G2" s="16">
-        <f>0.33*6</f>
-        <v>1.98</v>
+        <f>2*1.28</f>
+        <v>2.56</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -761,7 +763,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -776,10 +778,10 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -806,10 +808,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>2</v>
@@ -827,15 +829,15 @@
         <v>3</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="14"/>
@@ -862,7 +864,7 @@
         <v>25.24</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>13</v>
@@ -870,13 +872,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -888,18 +890,18 @@
         <v>12.99</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -917,15 +919,15 @@
         <v>3</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>3</v>
@@ -934,13 +936,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -952,42 +954,42 @@
         <v>11.95</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -1035,10 +1037,10 @@
     </row>
     <row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="14" t="s">
@@ -1048,34 +1050,34 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G24" s="21"/>
       <c r="I24" s="22"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="4">
         <v>27.13</v>
@@ -1083,13 +1085,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="4">
         <v>37.79</v>

--- a/Cost Estimate.xlsx
+++ b/Cost Estimate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisa\Documents\PlotSomething\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADEA863-1661-4E08-BD5C-ED6F4F01F2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C39CD9-BCF9-4E31-8F48-3CEE4938AF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{87914853-9D23-4A52-83CB-A1AB6492AA98}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
   <si>
     <t>Vendor</t>
   </si>
@@ -133,9 +133,6 @@
     <t>3/8 in. Base Shaft</t>
   </si>
   <si>
-    <t>Flange Bearing Mount</t>
-  </si>
-  <si>
     <t>https://www.homedepot.com/p/3-8-in-x-36-in-Plain-Steel-Round-Rod-802447/204273959</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>Alternatives if parts don't work out:</t>
   </si>
   <si>
-    <t>Base Shaft Mount</t>
-  </si>
-  <si>
     <t>Solenoid</t>
   </si>
   <si>
@@ -209,6 +203,9 @@
   </si>
   <si>
     <t>https://www.homedepot.com/p/Everbilt-10-24-Stainless-Steel-Machine-Screw-Nut-4-Pack-800031/204274134</t>
+  </si>
+  <si>
+    <t>36 in Metal Rod, 6 X 3/8-in nuts</t>
   </si>
 </sst>
 </file>
@@ -677,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181D703F-20ED-4372-AC32-B179828F1B52}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -719,7 +716,7 @@
         <v>18</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>12</v>
@@ -749,10 +746,10 @@
         <v>2.56</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -763,7 +760,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -778,10 +775,10 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -811,7 +808,7 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>2</v>
@@ -826,10 +823,10 @@
         <v>5.98</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -864,7 +861,7 @@
         <v>25.24</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>13</v>
@@ -890,7 +887,7 @@
         <v>12.99</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>28</v>
@@ -901,7 +898,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -924,110 +921,120 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>11.95</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="10"/>
+        <v>53</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4">
-        <v>11.95</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
+      <c r="A16" t="s">
         <v>35</v>
       </c>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>37</v>
+    </row>
+    <row r="18" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="12">
+        <v>5</v>
+      </c>
+      <c r="F18" s="12">
+        <v>2</v>
+      </c>
+      <c r="G18" s="13">
+        <f>1.28*2</f>
+        <v>2.56</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="12">
-        <v>5</v>
-      </c>
-      <c r="F19" s="12">
         <v>2</v>
       </c>
-      <c r="G19" s="13">
-        <f>1.28*2</f>
-        <v>2.56</v>
-      </c>
+      <c r="G19" s="13"/>
       <c r="H19" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I19" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="14" t="s">
@@ -1035,66 +1042,67 @@
       </c>
       <c r="I20" s="15"/>
     </row>
-    <row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="15"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="20" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="20" t="s">
+      <c r="G23" s="21"/>
+      <c r="I23" s="22"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="21"/>
-      <c r="I24" s="22"/>
+      <c r="D24" s="4">
+        <v>27.13</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" s="4">
-        <v>27.13</v>
+        <v>37.79</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D26" s="4">
-        <v>37.79</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1105,9 +1113,6 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D30" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Cost Estimate.xlsx
+++ b/Cost Estimate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisa\Documents\PlotSomething\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C39CD9-BCF9-4E31-8F48-3CEE4938AF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F7D7D8-7863-4BD7-80B6-B059EAF14FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{87914853-9D23-4A52-83CB-A1AB6492AA98}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
   <si>
     <t>Vendor</t>
   </si>
@@ -206,6 +206,18 @@
   </si>
   <si>
     <t>36 in Metal Rod, 6 X 3/8-in nuts</t>
+  </si>
+  <si>
+    <t>Price Split in Half:</t>
+  </si>
+  <si>
+    <t>Luisa Total:</t>
+  </si>
+  <si>
+    <t>Corey Total:</t>
+  </si>
+  <si>
+    <t>Difference:</t>
   </si>
 </sst>
 </file>
@@ -312,7 +324,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -358,6 +370,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -674,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181D703F-20ED-4372-AC32-B179828F1B52}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1060,6 +1073,9 @@
       <c r="D23" s="20" t="s">
         <v>47</v>
       </c>
+      <c r="E23" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="G23" s="21"/>
       <c r="I23" s="22"/>
     </row>
@@ -1076,6 +1092,10 @@
       <c r="D24" s="4">
         <v>27.13</v>
       </c>
+      <c r="E24" s="23">
+        <f>D24/2</f>
+        <v>13.565</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
@@ -1090,6 +1110,10 @@
       <c r="D25" s="4">
         <v>37.79</v>
       </c>
+      <c r="E25" s="23">
+        <f t="shared" ref="E25:E26" si="0">D25/2</f>
+        <v>18.895</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
@@ -1104,15 +1128,40 @@
       <c r="D26" s="4">
         <v>7.55</v>
       </c>
+      <c r="E26" s="23">
+        <f t="shared" si="0"/>
+        <v>3.7749999999999999</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="23">
+        <f>E25+E26</f>
+        <v>22.669999999999998</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="23">
+        <f>E24</f>
+        <v>13.565</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="23">
+        <f>E28-E29</f>
+        <v>9.1049999999999986</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
